--- a/ガントチャート.xlsx
+++ b/ガントチャート.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{62A6F787-DFEF-4587-9FF2-DB1D7AB573BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF6E425-2835-4565-A491-15B5A09CFE68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="415" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="42">
   <si>
     <t>このガント チャートについて</t>
   </si>
@@ -207,6 +207,17 @@
     <t>市原</t>
     <rPh sb="0" eb="2">
       <t>イチハラ</t>
+    </rPh>
+    <phoneticPr fontId="47"/>
+  </si>
+  <si>
+    <t>担当者</t>
+    <phoneticPr fontId="47"/>
+  </si>
+  <si>
+    <t>作業</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
     </rPh>
     <phoneticPr fontId="47"/>
   </si>
@@ -1502,6 +1513,12 @@
     <xf numFmtId="177" fontId="26" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="45" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="13" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1551,12 +1568,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="45" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2733,7 +2744,7 @@
   </autoFilter>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{619BF8F6-D0F1-41AD-871D-FE0240C45A93}" name="マイルストーンの説明" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{39BD914E-FB02-4352-846C-6D59624DC0B0}" name="カテゴリ" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{39BD914E-FB02-4352-846C-6D59624DC0B0}" name="作業" dataDxfId="30"/>
     <tableColumn id="3" xr3:uid="{D274194F-BCA0-44F3-84B2-217254EE241C}" name="担当者" dataDxfId="29"/>
     <tableColumn id="4" xr3:uid="{8385BC6F-56EE-4363-A106-8DB0A1E4EF5A}" name="進捗状況" dataDxfId="28"/>
     <tableColumn id="5" xr3:uid="{02926609-7B93-4B6F-BE96-92EC7A949E4B}" name="開始日" dataDxfId="27" dataCellStyle="日付"/>
@@ -3097,11 +3108,11 @@
     <row r="2" spans="1:13" s="4" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="30"/>
       <c r="B2" s="32"/>
-      <c r="C2" s="129" t="s">
+      <c r="C2" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
       <c r="F2" s="32"/>
       <c r="G2" s="30"/>
       <c r="H2" s="30"/>
@@ -3129,11 +3140,11 @@
     <row r="4" spans="1:13" s="6" customFormat="1" ht="67.2" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="30"/>
       <c r="B4" s="33"/>
-      <c r="C4" s="130" t="s">
+      <c r="C4" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="130"/>
-      <c r="E4" s="130"/>
+      <c r="D4" s="132"/>
+      <c r="E4" s="132"/>
       <c r="F4" s="33"/>
       <c r="G4" s="30"/>
       <c r="H4" s="30"/>
@@ -3146,11 +3157,11 @@
     <row r="5" spans="1:13" s="6" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A5" s="30"/>
       <c r="B5" s="33"/>
-      <c r="C5" s="130" t="s">
+      <c r="C5" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="130"/>
-      <c r="E5" s="130"/>
+      <c r="D5" s="132"/>
+      <c r="E5" s="132"/>
       <c r="F5" s="33"/>
       <c r="G5" s="30"/>
       <c r="H5" s="30"/>
@@ -3393,8 +3404,8 @@
   </sheetPr>
   <dimension ref="A1:BP38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A23" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3414,27 +3425,27 @@
     <row r="1" spans="1:68" ht="25.2" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:68" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
-      <c r="B2" s="133" t="s">
+      <c r="B2" s="135" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="133"/>
-      <c r="H2" s="133"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="134"/>
-      <c r="K2" s="134"/>
-      <c r="L2" s="134"/>
-      <c r="M2" s="134"/>
-      <c r="N2" s="134"/>
-      <c r="O2" s="135"/>
-      <c r="P2" s="135"/>
-      <c r="Q2" s="135"/>
-      <c r="R2" s="135"/>
-      <c r="S2" s="135"/>
-      <c r="T2" s="135"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="136"/>
+      <c r="M2" s="136"/>
+      <c r="N2" s="136"/>
+      <c r="O2" s="137"/>
+      <c r="P2" s="137"/>
+      <c r="Q2" s="137"/>
+      <c r="R2" s="137"/>
+      <c r="S2" s="137"/>
+      <c r="T2" s="137"/>
       <c r="U2" s="40"/>
       <c r="V2" s="40"/>
       <c r="W2" s="40"/>
@@ -3508,36 +3519,36 @@
         <v>30</v>
       </c>
       <c r="H4" s="49"/>
-      <c r="I4" s="136" t="s">
+      <c r="I4" s="138" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="136"/>
-      <c r="K4" s="136"/>
-      <c r="L4" s="136"/>
-      <c r="N4" s="137" t="s">
+      <c r="J4" s="138"/>
+      <c r="K4" s="138"/>
+      <c r="L4" s="138"/>
+      <c r="N4" s="139" t="s">
         <v>33</v>
       </c>
-      <c r="O4" s="137"/>
-      <c r="P4" s="137"/>
-      <c r="Q4" s="137"/>
-      <c r="S4" s="138" t="s">
+      <c r="O4" s="139"/>
+      <c r="P4" s="139"/>
+      <c r="Q4" s="139"/>
+      <c r="S4" s="140" t="s">
         <v>34</v>
       </c>
-      <c r="T4" s="138"/>
-      <c r="U4" s="138"/>
-      <c r="V4" s="138"/>
-      <c r="X4" s="131" t="s">
+      <c r="T4" s="140"/>
+      <c r="U4" s="140"/>
+      <c r="V4" s="140"/>
+      <c r="X4" s="133" t="s">
         <v>35</v>
       </c>
-      <c r="Y4" s="131"/>
-      <c r="Z4" s="131"/>
-      <c r="AA4" s="131"/>
-      <c r="AC4" s="132" t="s">
+      <c r="Y4" s="133"/>
+      <c r="Z4" s="133"/>
+      <c r="AA4" s="133"/>
+      <c r="AC4" s="134" t="s">
         <v>36</v>
       </c>
-      <c r="AD4" s="132"/>
-      <c r="AE4" s="132"/>
-      <c r="AF4" s="132"/>
+      <c r="AD4" s="134"/>
+      <c r="AE4" s="134"/>
+      <c r="AF4" s="134"/>
     </row>
     <row r="5" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8"/>
@@ -3558,7 +3569,7 @@
       </c>
       <c r="C6" s="54" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">IFERROR(IF(MIN(Milestones4352[開始日])=0,TODAY(),B11(Milestones4352[開始日])),TODAY())</f>
-        <v>44858</v>
+        <v>44860</v>
       </c>
       <c r="D6" s="55"/>
       <c r="E6" s="49"/>
@@ -3577,7 +3588,7 @@
       <c r="O6" s="56"/>
       <c r="P6" s="56" t="str">
         <f ca="1">IF(TEXT(P7,"m月")=I6,"",TEXT(P7,"m月"))</f>
-        <v/>
+        <v>11月</v>
       </c>
       <c r="Q6" s="56"/>
       <c r="R6" s="56"/>
@@ -3587,7 +3598,7 @@
       <c r="V6" s="56"/>
       <c r="W6" s="56" t="str">
         <f ca="1">IF(OR(TEXT(W7,"m月")=P6,TEXT(W7,"m月")=I6),"",TEXT(W7,"m月"))</f>
-        <v>11月</v>
+        <v/>
       </c>
       <c r="X6" s="56"/>
       <c r="Y6" s="56"/>
@@ -3661,227 +3672,227 @@
       <c r="H7" s="61"/>
       <c r="I7" s="114">
         <f ca="1">IFERROR(Project_Start+Scrolling_Increment,TODAY())</f>
-        <v>44858</v>
+        <v>44860</v>
       </c>
       <c r="J7" s="115">
         <f ca="1">I7+1</f>
-        <v>44859</v>
+        <v>44861</v>
       </c>
       <c r="K7" s="115">
         <f t="shared" ref="K7:AX7" ca="1" si="0">J7+1</f>
-        <v>44860</v>
+        <v>44862</v>
       </c>
       <c r="L7" s="115">
         <f t="shared" ca="1" si="0"/>
-        <v>44861</v>
+        <v>44863</v>
       </c>
       <c r="M7" s="115">
         <f t="shared" ca="1" si="0"/>
-        <v>44862</v>
+        <v>44864</v>
       </c>
       <c r="N7" s="115">
         <f t="shared" ca="1" si="0"/>
-        <v>44863</v>
+        <v>44865</v>
       </c>
       <c r="O7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>44864</v>
+        <v>44866</v>
       </c>
       <c r="P7" s="115">
         <f ca="1">O7+1</f>
-        <v>44865</v>
+        <v>44867</v>
       </c>
       <c r="Q7" s="115">
         <f ca="1">P7+1</f>
-        <v>44866</v>
+        <v>44868</v>
       </c>
       <c r="R7" s="115">
         <f t="shared" ca="1" si="0"/>
-        <v>44867</v>
+        <v>44869</v>
       </c>
       <c r="S7" s="115">
         <f t="shared" ca="1" si="0"/>
-        <v>44868</v>
+        <v>44870</v>
       </c>
       <c r="T7" s="115">
         <f t="shared" ca="1" si="0"/>
-        <v>44869</v>
+        <v>44871</v>
       </c>
       <c r="U7" s="115">
         <f t="shared" ca="1" si="0"/>
-        <v>44870</v>
+        <v>44872</v>
       </c>
       <c r="V7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>44871</v>
+        <v>44873</v>
       </c>
       <c r="W7" s="115">
         <f ca="1">V7+1</f>
-        <v>44872</v>
+        <v>44874</v>
       </c>
       <c r="X7" s="115">
         <f ca="1">W7+1</f>
-        <v>44873</v>
+        <v>44875</v>
       </c>
       <c r="Y7" s="115">
         <f t="shared" ca="1" si="0"/>
-        <v>44874</v>
+        <v>44876</v>
       </c>
       <c r="Z7" s="115">
         <f t="shared" ca="1" si="0"/>
-        <v>44875</v>
+        <v>44877</v>
       </c>
       <c r="AA7" s="115">
         <f t="shared" ca="1" si="0"/>
-        <v>44876</v>
+        <v>44878</v>
       </c>
       <c r="AB7" s="115">
         <f t="shared" ca="1" si="0"/>
-        <v>44877</v>
+        <v>44879</v>
       </c>
       <c r="AC7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>44878</v>
+        <v>44880</v>
       </c>
       <c r="AD7" s="115">
         <f ca="1">AC7+1</f>
-        <v>44879</v>
+        <v>44881</v>
       </c>
       <c r="AE7" s="115">
         <f ca="1">AD7+1</f>
-        <v>44880</v>
+        <v>44882</v>
       </c>
       <c r="AF7" s="115">
         <f t="shared" ca="1" si="0"/>
-        <v>44881</v>
+        <v>44883</v>
       </c>
       <c r="AG7" s="115">
         <f t="shared" ca="1" si="0"/>
-        <v>44882</v>
+        <v>44884</v>
       </c>
       <c r="AH7" s="115">
         <f t="shared" ca="1" si="0"/>
-        <v>44883</v>
+        <v>44885</v>
       </c>
       <c r="AI7" s="115">
         <f t="shared" ca="1" si="0"/>
-        <v>44884</v>
+        <v>44886</v>
       </c>
       <c r="AJ7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>44885</v>
+        <v>44887</v>
       </c>
       <c r="AK7" s="115">
         <f ca="1">AJ7+1</f>
-        <v>44886</v>
+        <v>44888</v>
       </c>
       <c r="AL7" s="115">
         <f ca="1">AK7+1</f>
-        <v>44887</v>
+        <v>44889</v>
       </c>
       <c r="AM7" s="115">
         <f t="shared" ca="1" si="0"/>
-        <v>44888</v>
+        <v>44890</v>
       </c>
       <c r="AN7" s="115">
         <f t="shared" ca="1" si="0"/>
-        <v>44889</v>
+        <v>44891</v>
       </c>
       <c r="AO7" s="115">
         <f t="shared" ca="1" si="0"/>
-        <v>44890</v>
+        <v>44892</v>
       </c>
       <c r="AP7" s="115">
         <f t="shared" ca="1" si="0"/>
-        <v>44891</v>
+        <v>44893</v>
       </c>
       <c r="AQ7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>44892</v>
+        <v>44894</v>
       </c>
       <c r="AR7" s="115">
         <f ca="1">AQ7+1</f>
-        <v>44893</v>
+        <v>44895</v>
       </c>
       <c r="AS7" s="115">
         <f ca="1">AR7+1</f>
-        <v>44894</v>
+        <v>44896</v>
       </c>
       <c r="AT7" s="115">
         <f t="shared" ca="1" si="0"/>
-        <v>44895</v>
+        <v>44897</v>
       </c>
       <c r="AU7" s="115">
         <f t="shared" ca="1" si="0"/>
-        <v>44896</v>
+        <v>44898</v>
       </c>
       <c r="AV7" s="115">
         <f t="shared" ca="1" si="0"/>
-        <v>44897</v>
+        <v>44899</v>
       </c>
       <c r="AW7" s="115">
         <f t="shared" ca="1" si="0"/>
-        <v>44898</v>
+        <v>44900</v>
       </c>
       <c r="AX7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>44899</v>
+        <v>44901</v>
       </c>
       <c r="AY7" s="115">
         <f ca="1">AX7+1</f>
-        <v>44900</v>
+        <v>44902</v>
       </c>
       <c r="AZ7" s="115">
         <f ca="1">AY7+1</f>
-        <v>44901</v>
+        <v>44903</v>
       </c>
       <c r="BA7" s="115">
         <f t="shared" ref="BA7:BE7" ca="1" si="1">AZ7+1</f>
-        <v>44902</v>
+        <v>44904</v>
       </c>
       <c r="BB7" s="115">
         <f t="shared" ca="1" si="1"/>
-        <v>44903</v>
+        <v>44905</v>
       </c>
       <c r="BC7" s="115">
         <f t="shared" ca="1" si="1"/>
-        <v>44904</v>
+        <v>44906</v>
       </c>
       <c r="BD7" s="115">
         <f t="shared" ca="1" si="1"/>
-        <v>44905</v>
+        <v>44907</v>
       </c>
       <c r="BE7" s="116">
         <f t="shared" ca="1" si="1"/>
-        <v>44906</v>
+        <v>44908</v>
       </c>
       <c r="BF7" s="115">
         <f ca="1">BE7+1</f>
-        <v>44907</v>
+        <v>44909</v>
       </c>
       <c r="BG7" s="115">
         <f ca="1">BF7+1</f>
-        <v>44908</v>
+        <v>44910</v>
       </c>
       <c r="BH7" s="115">
         <f t="shared" ref="BH7:BL7" ca="1" si="2">BG7+1</f>
-        <v>44909</v>
+        <v>44911</v>
       </c>
       <c r="BI7" s="115">
         <f t="shared" ca="1" si="2"/>
-        <v>44910</v>
+        <v>44912</v>
       </c>
       <c r="BJ7" s="115">
         <f t="shared" ca="1" si="2"/>
-        <v>44911</v>
+        <v>44913</v>
       </c>
       <c r="BK7" s="115">
         <f t="shared" ca="1" si="2"/>
-        <v>44912</v>
+        <v>44914</v>
       </c>
       <c r="BL7" s="116">
         <f t="shared" ca="1" si="2"/>
-        <v>44913</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="8" spans="1:68" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3956,10 +3967,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="63" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="D9" s="63" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="E9" s="63" t="s">
         <v>28</v>
@@ -3973,227 +3984,227 @@
       <c r="H9" s="64"/>
       <c r="I9" s="65" t="str">
         <f t="shared" ref="I9:AN9" ca="1" si="3">LEFT(TEXT(I7,"aaa"),1)</f>
-        <v>月</v>
+        <v>水</v>
       </c>
       <c r="J9" s="65" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>火</v>
+        <v>木</v>
       </c>
       <c r="K9" s="65" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>水</v>
+        <v>金</v>
       </c>
       <c r="L9" s="65" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>木</v>
+        <v>土</v>
       </c>
       <c r="M9" s="65" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>金</v>
+        <v>日</v>
       </c>
       <c r="N9" s="65" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>土</v>
+        <v>月</v>
       </c>
       <c r="O9" s="65" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>日</v>
+        <v>火</v>
       </c>
       <c r="P9" s="65" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>月</v>
+        <v>水</v>
       </c>
       <c r="Q9" s="65" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>火</v>
+        <v>木</v>
       </c>
       <c r="R9" s="65" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>水</v>
+        <v>金</v>
       </c>
       <c r="S9" s="65" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>木</v>
+        <v>土</v>
       </c>
       <c r="T9" s="65" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>金</v>
+        <v>日</v>
       </c>
       <c r="U9" s="65" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>土</v>
+        <v>月</v>
       </c>
       <c r="V9" s="65" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>日</v>
+        <v>火</v>
       </c>
       <c r="W9" s="65" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>月</v>
+        <v>水</v>
       </c>
       <c r="X9" s="65" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>火</v>
+        <v>木</v>
       </c>
       <c r="Y9" s="65" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>水</v>
+        <v>金</v>
       </c>
       <c r="Z9" s="65" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>木</v>
+        <v>土</v>
       </c>
       <c r="AA9" s="65" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>金</v>
+        <v>日</v>
       </c>
       <c r="AB9" s="65" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>土</v>
+        <v>月</v>
       </c>
       <c r="AC9" s="65" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>日</v>
+        <v>火</v>
       </c>
       <c r="AD9" s="65" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>月</v>
+        <v>水</v>
       </c>
       <c r="AE9" s="65" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>火</v>
+        <v>木</v>
       </c>
       <c r="AF9" s="65" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>水</v>
+        <v>金</v>
       </c>
       <c r="AG9" s="65" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>木</v>
+        <v>土</v>
       </c>
       <c r="AH9" s="65" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>金</v>
+        <v>日</v>
       </c>
       <c r="AI9" s="65" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>土</v>
+        <v>月</v>
       </c>
       <c r="AJ9" s="65" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>日</v>
+        <v>火</v>
       </c>
       <c r="AK9" s="65" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>月</v>
+        <v>水</v>
       </c>
       <c r="AL9" s="65" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>火</v>
+        <v>木</v>
       </c>
       <c r="AM9" s="65" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>水</v>
+        <v>金</v>
       </c>
       <c r="AN9" s="65" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>木</v>
+        <v>土</v>
       </c>
       <c r="AO9" s="65" t="str">
         <f t="shared" ref="AO9:BL9" ca="1" si="4">LEFT(TEXT(AO7,"aaa"),1)</f>
-        <v>金</v>
+        <v>日</v>
       </c>
       <c r="AP9" s="65" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>土</v>
+        <v>月</v>
       </c>
       <c r="AQ9" s="65" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>日</v>
+        <v>火</v>
       </c>
       <c r="AR9" s="65" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>月</v>
+        <v>水</v>
       </c>
       <c r="AS9" s="65" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>火</v>
+        <v>木</v>
       </c>
       <c r="AT9" s="65" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>水</v>
+        <v>金</v>
       </c>
       <c r="AU9" s="65" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>木</v>
+        <v>土</v>
       </c>
       <c r="AV9" s="65" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>金</v>
+        <v>日</v>
       </c>
       <c r="AW9" s="65" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>土</v>
+        <v>月</v>
       </c>
       <c r="AX9" s="65" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>日</v>
+        <v>火</v>
       </c>
       <c r="AY9" s="65" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>月</v>
+        <v>水</v>
       </c>
       <c r="AZ9" s="65" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>火</v>
+        <v>木</v>
       </c>
       <c r="BA9" s="65" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>水</v>
+        <v>金</v>
       </c>
       <c r="BB9" s="65" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>木</v>
+        <v>土</v>
       </c>
       <c r="BC9" s="65" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>金</v>
+        <v>日</v>
       </c>
       <c r="BD9" s="65" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>土</v>
+        <v>月</v>
       </c>
       <c r="BE9" s="65" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>日</v>
+        <v>火</v>
       </c>
       <c r="BF9" s="65" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>月</v>
+        <v>水</v>
       </c>
       <c r="BG9" s="65" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>火</v>
+        <v>木</v>
       </c>
       <c r="BH9" s="65" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>水</v>
+        <v>金</v>
       </c>
       <c r="BI9" s="65" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>木</v>
+        <v>土</v>
       </c>
       <c r="BJ9" s="65" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>金</v>
+        <v>日</v>
       </c>
       <c r="BK9" s="65" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>土</v>
+        <v>月</v>
       </c>
       <c r="BL9" s="65" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>日</v>
+        <v>火</v>
       </c>
     </row>
     <row r="10" spans="1:68" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4509,27 +4520,27 @@
         <v>37</v>
       </c>
       <c r="E12" s="68">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F12" s="69">
         <f ca="1">TODAY()</f>
-        <v>44858</v>
+        <v>44860</v>
       </c>
       <c r="G12" s="70">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H12" s="67"/>
-      <c r="I12" s="15">
+      <c r="I12" s="15" t="str">
         <f ca="1">IF(AND($C12="目標",I$7&gt;=$F12,I$7&lt;=$F12+$G12-1),2,IF(AND($C12="マイルストーン",I$7&gt;=$F12,I$7&lt;=$F12+$G12-1),1,""))</f>
-        <v>2</v>
-      </c>
-      <c r="J12" s="15">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="K12" s="15">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v/>
+      </c>
+      <c r="J12" s="15" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="K12" s="15" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
       </c>
       <c r="L12" s="15" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -4750,16 +4761,16 @@
         <v>11</v>
       </c>
       <c r="C13" s="67" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D13" s="67"/>
       <c r="E13" s="68"/>
       <c r="F13" s="69">
         <f ca="1">TODAY()+5</f>
-        <v>44863</v>
+        <v>44865</v>
       </c>
       <c r="G13" s="70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" s="67"/>
       <c r="I13" s="15" t="str">
@@ -4782,9 +4793,9 @@
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
-      <c r="N13" s="15">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+      <c r="N13" s="15" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
       </c>
       <c r="O13" s="15" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -5001,7 +5012,7 @@
       </c>
       <c r="F14" s="69">
         <f ca="1">F12-3</f>
-        <v>44855</v>
+        <v>44857</v>
       </c>
       <c r="G14" s="70">
         <v>0</v>
@@ -5223,10 +5234,10 @@
       <c r="E15" s="68"/>
       <c r="F15" s="69">
         <f ca="1">F12+20</f>
-        <v>44878</v>
+        <v>44880</v>
       </c>
       <c r="G15" s="70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" s="67"/>
       <c r="I15" s="15"/>
@@ -5288,9 +5299,9 @@
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="AC15" s="15">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+      <c r="AC15" s="15" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
       </c>
       <c r="AD15" s="15" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -5443,11 +5454,11 @@
       </c>
       <c r="D16" s="67"/>
       <c r="E16" s="68">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="69">
         <f ca="1">F12+6</f>
-        <v>44864</v>
+        <v>44866</v>
       </c>
       <c r="G16" s="70">
         <v>0</v>
@@ -5930,7 +5941,7 @@
       </c>
       <c r="F18" s="69">
         <f ca="1">F12+6</f>
-        <v>44864</v>
+        <v>44866</v>
       </c>
       <c r="G18" s="70">
         <v>0</v>
@@ -6175,7 +6186,7 @@
       </c>
       <c r="F19" s="69">
         <f ca="1">F18+2</f>
-        <v>44866</v>
+        <v>44868</v>
       </c>
       <c r="G19" s="70">
         <v>0</v>
@@ -6420,7 +6431,7 @@
       </c>
       <c r="F20" s="69">
         <f ca="1">F19+5</f>
-        <v>44871</v>
+        <v>44873</v>
       </c>
       <c r="G20" s="70">
         <v>0</v>
@@ -6663,7 +6674,7 @@
       <c r="E21" s="68"/>
       <c r="F21" s="69">
         <f ca="1">F20+2</f>
-        <v>44873</v>
+        <v>44875</v>
       </c>
       <c r="G21" s="70">
         <v>0</v>
@@ -6904,7 +6915,7 @@
       <c r="E22" s="68"/>
       <c r="F22" s="69">
         <f ca="1">F21+1</f>
-        <v>44874</v>
+        <v>44876</v>
       </c>
       <c r="G22" s="70">
         <v>0</v>
@@ -7387,7 +7398,7 @@
       <c r="E24" s="68"/>
       <c r="F24" s="69">
         <f ca="1">F12+15</f>
-        <v>44873</v>
+        <v>44875</v>
       </c>
       <c r="G24" s="70">
         <v>0</v>
@@ -7630,7 +7641,7 @@
       <c r="E25" s="68"/>
       <c r="F25" s="69">
         <f ca="1">F24+3</f>
-        <v>44876</v>
+        <v>44878</v>
       </c>
       <c r="G25" s="70">
         <v>0</v>
@@ -7873,7 +7884,7 @@
       <c r="E26" s="68"/>
       <c r="F26" s="69">
         <f ca="1">F25+15</f>
-        <v>44891</v>
+        <v>44893</v>
       </c>
       <c r="G26" s="70">
         <v>0</v>
@@ -8116,7 +8127,7 @@
       <c r="E27" s="68"/>
       <c r="F27" s="69">
         <f ca="1">F21+22</f>
-        <v>44895</v>
+        <v>44897</v>
       </c>
       <c r="G27" s="70">
         <v>0</v>
@@ -8182,7 +8193,7 @@
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="X27" s="146" t="str">
+      <c r="X27" s="129" t="str">
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
@@ -8359,7 +8370,7 @@
       <c r="E28" s="68"/>
       <c r="F28" s="69">
         <f ca="1">F16</f>
-        <v>44864</v>
+        <v>44866</v>
       </c>
       <c r="G28" s="70">
         <v>0</v>
@@ -8497,95 +8508,95 @@
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="AP28" s="146" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AQ28" s="146" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AR28" s="146" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AS28" s="146" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AT28" s="146" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AU28" s="146" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AV28" s="146" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AW28" s="146" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AX28" s="146" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AY28" s="146" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AZ28" s="146" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BA28" s="146" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BB28" s="146" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BC28" s="146" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BD28" s="146" t="str">
+      <c r="AP28" s="129" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="AQ28" s="129" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="AR28" s="129" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="AS28" s="129" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="AT28" s="129" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="AU28" s="129" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="AV28" s="129" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="AW28" s="129" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="AX28" s="129" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="AY28" s="129" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="AZ28" s="129" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="BA28" s="129" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="BB28" s="129" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="BC28" s="129" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="BD28" s="129" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BE28" s="146" t="str">
+      <c r="BE28" s="129" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BF28" s="146" t="str">
+      <c r="BF28" s="129" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BG28" s="146" t="str">
+      <c r="BG28" s="129" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BH28" s="146" t="str">
+      <c r="BH28" s="129" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BI28" s="146" t="str">
+      <c r="BI28" s="129" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BJ28" s="146" t="str">
+      <c r="BJ28" s="129" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BK28" s="146" t="str">
+      <c r="BK28" s="129" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BL28" s="146" t="str">
+      <c r="BL28" s="129" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
@@ -8731,95 +8742,95 @@
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="AP29" s="146" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AQ29" s="146" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AR29" s="146" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AS29" s="146" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AT29" s="146" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AU29" s="146" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AV29" s="147" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AW29" s="147" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AX29" s="147" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AY29" s="147" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AZ29" s="147" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BA29" s="147" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BB29" s="147" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BC29" s="147" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BD29" s="147" t="str">
+      <c r="AP29" s="129" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="AQ29" s="129" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="AR29" s="129" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="AS29" s="129" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="AT29" s="129" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="AU29" s="129" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="AV29" s="130" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="AW29" s="130" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="AX29" s="130" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="AY29" s="130" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="AZ29" s="130" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="BA29" s="130" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="BB29" s="130" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="BC29" s="130" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="BD29" s="130" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BE29" s="147" t="str">
+      <c r="BE29" s="130" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BF29" s="147" t="str">
+      <c r="BF29" s="130" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BG29" s="147" t="str">
+      <c r="BG29" s="130" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BH29" s="147" t="str">
+      <c r="BH29" s="130" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BI29" s="147" t="str">
+      <c r="BI29" s="130" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BJ29" s="147" t="str">
+      <c r="BJ29" s="130" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BK29" s="147" t="str">
+      <c r="BK29" s="130" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BL29" s="146" t="str">
+      <c r="BL29" s="129" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
@@ -8965,92 +8976,92 @@
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="AP30" s="146" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AQ30" s="146" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AR30" s="146" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AS30" s="146" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AT30" s="146" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AU30" s="146" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AV30" s="147" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AW30" s="147" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AX30" s="147" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AY30" s="147" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AZ30" s="147" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BA30" s="147"/>
-      <c r="BB30" s="147" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BC30" s="147" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BD30" s="147" t="str">
+      <c r="AP30" s="129" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="AQ30" s="129" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="AR30" s="129" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="AS30" s="129" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="AT30" s="129" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="AU30" s="129" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="AV30" s="130" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="AW30" s="130" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="AX30" s="130" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="AY30" s="130" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="AZ30" s="130" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="BA30" s="130"/>
+      <c r="BB30" s="130" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="BC30" s="130" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="BD30" s="130" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BE30" s="147" t="str">
+      <c r="BE30" s="130" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BF30" s="147" t="str">
+      <c r="BF30" s="130" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BG30" s="147" t="str">
+      <c r="BG30" s="130" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BH30" s="147" t="str">
+      <c r="BH30" s="130" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BI30" s="147" t="str">
+      <c r="BI30" s="130" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BJ30" s="147" t="str">
+      <c r="BJ30" s="130" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BK30" s="147" t="str">
+      <c r="BK30" s="130" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BL30" s="147" t="str">
+      <c r="BL30" s="130" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
@@ -9196,95 +9207,95 @@
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="AP31" s="146" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AQ31" s="146" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AR31" s="146" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AS31" s="146" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AT31" s="146" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AU31" s="146" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AV31" s="147" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AW31" s="147" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AX31" s="147" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AY31" s="147" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AZ31" s="147" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BA31" s="147" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BB31" s="147" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BC31" s="147" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BD31" s="147" t="str">
+      <c r="AP31" s="129" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="AQ31" s="129" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="AR31" s="129" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="AS31" s="129" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="AT31" s="129" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="AU31" s="129" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="AV31" s="130" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="AW31" s="130" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="AX31" s="130" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="AY31" s="130" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="AZ31" s="130" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="BA31" s="130" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="BB31" s="130" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="BC31" s="130" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="BD31" s="130" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BE31" s="147" t="str">
+      <c r="BE31" s="130" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BF31" s="147" t="str">
+      <c r="BF31" s="130" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BG31" s="147" t="str">
+      <c r="BG31" s="130" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BH31" s="147" t="str">
+      <c r="BH31" s="130" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BI31" s="147" t="str">
+      <c r="BI31" s="130" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BJ31" s="147" t="str">
+      <c r="BJ31" s="130" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BK31" s="147" t="str">
+      <c r="BK31" s="130" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BL31" s="146" t="str">
+      <c r="BL31" s="129" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
@@ -9430,95 +9441,95 @@
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="AP32" s="146" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AQ32" s="146" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AR32" s="146" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AS32" s="146" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AT32" s="146" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AU32" s="146" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AV32" s="147" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AW32" s="147" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AX32" s="147" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AY32" s="147" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AZ32" s="147" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BA32" s="147" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BB32" s="147" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BC32" s="147" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BD32" s="147" t="str">
+      <c r="AP32" s="129" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="AQ32" s="129" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="AR32" s="129" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="AS32" s="129" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="AT32" s="129" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="AU32" s="129" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="AV32" s="130" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="AW32" s="130" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="AX32" s="130" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="AY32" s="130" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="AZ32" s="130" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="BA32" s="130" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="BB32" s="130" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="BC32" s="130" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="BD32" s="130" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BE32" s="147" t="str">
+      <c r="BE32" s="130" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BF32" s="147" t="str">
+      <c r="BF32" s="130" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BG32" s="147" t="str">
+      <c r="BG32" s="130" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BH32" s="147" t="str">
+      <c r="BH32" s="130" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BI32" s="147" t="str">
+      <c r="BI32" s="130" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BJ32" s="147" t="str">
+      <c r="BJ32" s="130" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BK32" s="147" t="str">
+      <c r="BK32" s="130" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BL32" s="146" t="str">
+      <c r="BL32" s="129" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
@@ -9664,95 +9675,95 @@
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="AP33" s="146" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AQ33" s="146" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AR33" s="146" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AS33" s="146" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AT33" s="146" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AU33" s="146" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AV33" s="147" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AW33" s="147" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AX33" s="147" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AY33" s="147" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AZ33" s="147" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BA33" s="147" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BB33" s="147" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BC33" s="147" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BD33" s="147" t="str">
+      <c r="AP33" s="129" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="AQ33" s="129" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="AR33" s="129" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="AS33" s="129" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="AT33" s="129" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="AU33" s="129" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="AV33" s="130" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="AW33" s="130" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="AX33" s="130" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="AY33" s="130" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="AZ33" s="130" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="BA33" s="130" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="BB33" s="130" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="BC33" s="130" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="BD33" s="130" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BE33" s="147" t="str">
+      <c r="BE33" s="130" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BF33" s="147" t="str">
+      <c r="BF33" s="130" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BG33" s="147" t="str">
+      <c r="BG33" s="130" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BH33" s="147" t="str">
+      <c r="BH33" s="130" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BI33" s="147" t="str">
+      <c r="BI33" s="130" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BJ33" s="147" t="str">
+      <c r="BJ33" s="130" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BK33" s="147" t="str">
+      <c r="BK33" s="130" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BL33" s="146" t="str">
+      <c r="BL33" s="129" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
@@ -9898,95 +9909,95 @@
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
-      <c r="AP34" s="146" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AQ34" s="146" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AR34" s="146" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AS34" s="146" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AT34" s="146" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AU34" s="146" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AV34" s="147" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AW34" s="147" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AX34" s="147" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AY34" s="147" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AZ34" s="147" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BA34" s="147" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BB34" s="147" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BC34" s="147" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BD34" s="147" t="str">
+      <c r="AP34" s="129" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="AQ34" s="129" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="AR34" s="129" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="AS34" s="129" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="AT34" s="129" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="AU34" s="129" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="AV34" s="130" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="AW34" s="130" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="AX34" s="130" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="AY34" s="130" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="AZ34" s="130" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="BA34" s="130" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="BB34" s="130" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="BC34" s="130" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="BD34" s="130" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BE34" s="147" t="str">
+      <c r="BE34" s="130" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BF34" s="147" t="str">
+      <c r="BF34" s="130" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BG34" s="147" t="str">
+      <c r="BG34" s="130" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BH34" s="147" t="str">
+      <c r="BH34" s="130" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BI34" s="147" t="str">
+      <c r="BI34" s="130" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BJ34" s="147" t="str">
+      <c r="BJ34" s="130" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BK34" s="147" t="str">
+      <c r="BK34" s="130" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="BL34" s="146" t="str">
+      <c r="BL34" s="129" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
@@ -10522,27 +10533,27 @@
     <row r="1" spans="1:68" ht="25.2" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:68" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
-      <c r="B2" s="139" t="s">
+      <c r="B2" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="139"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
-      <c r="I2" s="140"/>
-      <c r="J2" s="140"/>
-      <c r="K2" s="140"/>
-      <c r="L2" s="140"/>
-      <c r="M2" s="140"/>
-      <c r="N2" s="140"/>
-      <c r="O2" s="141"/>
-      <c r="P2" s="142"/>
-      <c r="Q2" s="142"/>
-      <c r="R2" s="142"/>
-      <c r="S2" s="142"/>
-      <c r="T2" s="142"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="141"/>
+      <c r="G2" s="141"/>
+      <c r="H2" s="141"/>
+      <c r="I2" s="142"/>
+      <c r="J2" s="142"/>
+      <c r="K2" s="142"/>
+      <c r="L2" s="142"/>
+      <c r="M2" s="142"/>
+      <c r="N2" s="142"/>
+      <c r="O2" s="143"/>
+      <c r="P2" s="144"/>
+      <c r="Q2" s="144"/>
+      <c r="R2" s="144"/>
+      <c r="S2" s="144"/>
+      <c r="T2" s="144"/>
       <c r="U2" s="14"/>
       <c r="V2" s="14"/>
       <c r="W2" s="14"/>
@@ -10669,40 +10680,40 @@
         <v>30</v>
       </c>
       <c r="H4" s="86"/>
-      <c r="I4" s="136" t="s">
+      <c r="I4" s="138" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="136"/>
-      <c r="K4" s="136"/>
-      <c r="L4" s="136"/>
+      <c r="J4" s="138"/>
+      <c r="K4" s="138"/>
+      <c r="L4" s="138"/>
       <c r="M4" s="18"/>
-      <c r="N4" s="137" t="s">
+      <c r="N4" s="139" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="137"/>
-      <c r="P4" s="137"/>
-      <c r="Q4" s="137"/>
+      <c r="O4" s="139"/>
+      <c r="P4" s="139"/>
+      <c r="Q4" s="139"/>
       <c r="R4" s="18"/>
-      <c r="S4" s="138" t="s">
+      <c r="S4" s="140" t="s">
         <v>23</v>
       </c>
-      <c r="T4" s="138"/>
-      <c r="U4" s="138"/>
-      <c r="V4" s="138"/>
+      <c r="T4" s="140"/>
+      <c r="U4" s="140"/>
+      <c r="V4" s="140"/>
       <c r="W4" s="18"/>
-      <c r="X4" s="131" t="s">
+      <c r="X4" s="133" t="s">
         <v>24</v>
       </c>
-      <c r="Y4" s="131"/>
-      <c r="Z4" s="131"/>
-      <c r="AA4" s="131"/>
+      <c r="Y4" s="133"/>
+      <c r="Z4" s="133"/>
+      <c r="AA4" s="133"/>
       <c r="AB4" s="18"/>
-      <c r="AC4" s="132" t="s">
+      <c r="AC4" s="134" t="s">
         <v>32</v>
       </c>
-      <c r="AD4" s="132"/>
-      <c r="AE4" s="132"/>
-      <c r="AF4" s="132"/>
+      <c r="AD4" s="134"/>
+      <c r="AE4" s="134"/>
+      <c r="AF4" s="134"/>
       <c r="AG4" s="18"/>
       <c r="AH4" s="18"/>
       <c r="AI4" s="18"/>
@@ -10813,7 +10824,7 @@
       </c>
       <c r="C6" s="91" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">IFERROR(IF(MIN(Milestones435[開始日])=0,TODAY(),B11(Milestones435[開始日])),TODAY())</f>
-        <v>44858</v>
+        <v>44860</v>
       </c>
       <c r="D6" s="92"/>
       <c r="E6" s="18"/>
@@ -10832,7 +10843,7 @@
       <c r="O6" s="93"/>
       <c r="P6" s="93" t="str">
         <f ca="1">IF(TEXT(P7,"m月")=I6,"",TEXT(P7,"m月"))</f>
-        <v/>
+        <v>11月</v>
       </c>
       <c r="Q6" s="93"/>
       <c r="R6" s="93"/>
@@ -10842,7 +10853,7 @@
       <c r="V6" s="93"/>
       <c r="W6" s="93" t="str">
         <f ca="1">IF(OR(TEXT(W7,"m月")=P6,TEXT(W7,"m月")=I6),"",TEXT(W7,"m月"))</f>
-        <v>11月</v>
+        <v/>
       </c>
       <c r="X6" s="93"/>
       <c r="Y6" s="93"/>
@@ -10917,227 +10928,227 @@
       <c r="H7" s="86"/>
       <c r="I7" s="122">
         <f ca="1">IFERROR(Project_Start+Scrolling_Increment,TODAY())</f>
-        <v>44858</v>
+        <v>44860</v>
       </c>
       <c r="J7" s="123">
         <f ca="1">I7+1</f>
-        <v>44859</v>
+        <v>44861</v>
       </c>
       <c r="K7" s="123">
         <f t="shared" ref="K7:AX7" ca="1" si="0">J7+1</f>
-        <v>44860</v>
+        <v>44862</v>
       </c>
       <c r="L7" s="123">
         <f t="shared" ca="1" si="0"/>
-        <v>44861</v>
+        <v>44863</v>
       </c>
       <c r="M7" s="123">
         <f t="shared" ca="1" si="0"/>
-        <v>44862</v>
+        <v>44864</v>
       </c>
       <c r="N7" s="123">
         <f t="shared" ca="1" si="0"/>
-        <v>44863</v>
+        <v>44865</v>
       </c>
       <c r="O7" s="124">
         <f t="shared" ca="1" si="0"/>
-        <v>44864</v>
+        <v>44866</v>
       </c>
       <c r="P7" s="123">
         <f ca="1">O7+1</f>
-        <v>44865</v>
+        <v>44867</v>
       </c>
       <c r="Q7" s="123">
         <f ca="1">P7+1</f>
-        <v>44866</v>
+        <v>44868</v>
       </c>
       <c r="R7" s="123">
         <f t="shared" ca="1" si="0"/>
-        <v>44867</v>
+        <v>44869</v>
       </c>
       <c r="S7" s="123">
         <f t="shared" ca="1" si="0"/>
-        <v>44868</v>
+        <v>44870</v>
       </c>
       <c r="T7" s="123">
         <f t="shared" ca="1" si="0"/>
-        <v>44869</v>
+        <v>44871</v>
       </c>
       <c r="U7" s="123">
         <f t="shared" ca="1" si="0"/>
-        <v>44870</v>
+        <v>44872</v>
       </c>
       <c r="V7" s="124">
         <f t="shared" ca="1" si="0"/>
-        <v>44871</v>
+        <v>44873</v>
       </c>
       <c r="W7" s="123">
         <f ca="1">V7+1</f>
-        <v>44872</v>
+        <v>44874</v>
       </c>
       <c r="X7" s="123">
         <f ca="1">W7+1</f>
-        <v>44873</v>
+        <v>44875</v>
       </c>
       <c r="Y7" s="123">
         <f t="shared" ca="1" si="0"/>
-        <v>44874</v>
+        <v>44876</v>
       </c>
       <c r="Z7" s="123">
         <f t="shared" ca="1" si="0"/>
-        <v>44875</v>
+        <v>44877</v>
       </c>
       <c r="AA7" s="123">
         <f t="shared" ca="1" si="0"/>
-        <v>44876</v>
+        <v>44878</v>
       </c>
       <c r="AB7" s="123">
         <f t="shared" ca="1" si="0"/>
-        <v>44877</v>
+        <v>44879</v>
       </c>
       <c r="AC7" s="124">
         <f t="shared" ca="1" si="0"/>
-        <v>44878</v>
+        <v>44880</v>
       </c>
       <c r="AD7" s="123">
         <f ca="1">AC7+1</f>
-        <v>44879</v>
+        <v>44881</v>
       </c>
       <c r="AE7" s="123">
         <f ca="1">AD7+1</f>
-        <v>44880</v>
+        <v>44882</v>
       </c>
       <c r="AF7" s="123">
         <f t="shared" ca="1" si="0"/>
-        <v>44881</v>
+        <v>44883</v>
       </c>
       <c r="AG7" s="123">
         <f t="shared" ca="1" si="0"/>
-        <v>44882</v>
+        <v>44884</v>
       </c>
       <c r="AH7" s="123">
         <f t="shared" ca="1" si="0"/>
-        <v>44883</v>
+        <v>44885</v>
       </c>
       <c r="AI7" s="123">
         <f t="shared" ca="1" si="0"/>
-        <v>44884</v>
+        <v>44886</v>
       </c>
       <c r="AJ7" s="124">
         <f t="shared" ca="1" si="0"/>
-        <v>44885</v>
+        <v>44887</v>
       </c>
       <c r="AK7" s="123">
         <f ca="1">AJ7+1</f>
-        <v>44886</v>
+        <v>44888</v>
       </c>
       <c r="AL7" s="123">
         <f ca="1">AK7+1</f>
-        <v>44887</v>
+        <v>44889</v>
       </c>
       <c r="AM7" s="123">
         <f t="shared" ca="1" si="0"/>
-        <v>44888</v>
+        <v>44890</v>
       </c>
       <c r="AN7" s="123">
         <f t="shared" ca="1" si="0"/>
-        <v>44889</v>
+        <v>44891</v>
       </c>
       <c r="AO7" s="123">
         <f t="shared" ca="1" si="0"/>
-        <v>44890</v>
+        <v>44892</v>
       </c>
       <c r="AP7" s="123">
         <f t="shared" ca="1" si="0"/>
-        <v>44891</v>
+        <v>44893</v>
       </c>
       <c r="AQ7" s="124">
         <f t="shared" ca="1" si="0"/>
-        <v>44892</v>
+        <v>44894</v>
       </c>
       <c r="AR7" s="123">
         <f ca="1">AQ7+1</f>
-        <v>44893</v>
+        <v>44895</v>
       </c>
       <c r="AS7" s="123">
         <f ca="1">AR7+1</f>
-        <v>44894</v>
+        <v>44896</v>
       </c>
       <c r="AT7" s="123">
         <f t="shared" ca="1" si="0"/>
-        <v>44895</v>
+        <v>44897</v>
       </c>
       <c r="AU7" s="123">
         <f t="shared" ca="1" si="0"/>
-        <v>44896</v>
+        <v>44898</v>
       </c>
       <c r="AV7" s="123">
         <f t="shared" ca="1" si="0"/>
-        <v>44897</v>
+        <v>44899</v>
       </c>
       <c r="AW7" s="123">
         <f t="shared" ca="1" si="0"/>
-        <v>44898</v>
+        <v>44900</v>
       </c>
       <c r="AX7" s="124">
         <f t="shared" ca="1" si="0"/>
-        <v>44899</v>
+        <v>44901</v>
       </c>
       <c r="AY7" s="123">
         <f ca="1">AX7+1</f>
-        <v>44900</v>
+        <v>44902</v>
       </c>
       <c r="AZ7" s="123">
         <f ca="1">AY7+1</f>
-        <v>44901</v>
+        <v>44903</v>
       </c>
       <c r="BA7" s="123">
         <f t="shared" ref="BA7:BE7" ca="1" si="1">AZ7+1</f>
-        <v>44902</v>
+        <v>44904</v>
       </c>
       <c r="BB7" s="123">
         <f t="shared" ca="1" si="1"/>
-        <v>44903</v>
+        <v>44905</v>
       </c>
       <c r="BC7" s="123">
         <f t="shared" ca="1" si="1"/>
-        <v>44904</v>
+        <v>44906</v>
       </c>
       <c r="BD7" s="123">
         <f t="shared" ca="1" si="1"/>
-        <v>44905</v>
+        <v>44907</v>
       </c>
       <c r="BE7" s="124">
         <f t="shared" ca="1" si="1"/>
-        <v>44906</v>
+        <v>44908</v>
       </c>
       <c r="BF7" s="123">
         <f ca="1">BE7+1</f>
-        <v>44907</v>
+        <v>44909</v>
       </c>
       <c r="BG7" s="123">
         <f ca="1">BF7+1</f>
-        <v>44908</v>
+        <v>44910</v>
       </c>
       <c r="BH7" s="123">
         <f t="shared" ref="BH7:BL7" ca="1" si="2">BG7+1</f>
-        <v>44909</v>
+        <v>44911</v>
       </c>
       <c r="BI7" s="123">
         <f t="shared" ca="1" si="2"/>
-        <v>44910</v>
+        <v>44912</v>
       </c>
       <c r="BJ7" s="123">
         <f t="shared" ca="1" si="2"/>
-        <v>44911</v>
+        <v>44913</v>
       </c>
       <c r="BK7" s="123">
         <f t="shared" ca="1" si="2"/>
-        <v>44912</v>
+        <v>44914</v>
       </c>
       <c r="BL7" s="125">
         <f t="shared" ca="1" si="2"/>
-        <v>44913</v>
+        <v>44915</v>
       </c>
       <c r="BM7" s="18"/>
     </row>
@@ -11231,227 +11242,227 @@
       <c r="H9" s="99"/>
       <c r="I9" s="100" t="str">
         <f t="shared" ref="I9:AN9" ca="1" si="3">LEFT(TEXT(I7,"aaa"),1)</f>
-        <v>月</v>
+        <v>水</v>
       </c>
       <c r="J9" s="100" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>火</v>
+        <v>木</v>
       </c>
       <c r="K9" s="100" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>水</v>
+        <v>金</v>
       </c>
       <c r="L9" s="100" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>木</v>
+        <v>土</v>
       </c>
       <c r="M9" s="100" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>金</v>
+        <v>日</v>
       </c>
       <c r="N9" s="100" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>土</v>
+        <v>月</v>
       </c>
       <c r="O9" s="100" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>日</v>
+        <v>火</v>
       </c>
       <c r="P9" s="100" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>月</v>
+        <v>水</v>
       </c>
       <c r="Q9" s="100" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>火</v>
+        <v>木</v>
       </c>
       <c r="R9" s="100" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>水</v>
+        <v>金</v>
       </c>
       <c r="S9" s="100" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>木</v>
+        <v>土</v>
       </c>
       <c r="T9" s="100" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>金</v>
+        <v>日</v>
       </c>
       <c r="U9" s="100" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>土</v>
+        <v>月</v>
       </c>
       <c r="V9" s="100" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>日</v>
+        <v>火</v>
       </c>
       <c r="W9" s="100" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>月</v>
+        <v>水</v>
       </c>
       <c r="X9" s="100" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>火</v>
+        <v>木</v>
       </c>
       <c r="Y9" s="100" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>水</v>
+        <v>金</v>
       </c>
       <c r="Z9" s="100" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>木</v>
+        <v>土</v>
       </c>
       <c r="AA9" s="100" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>金</v>
+        <v>日</v>
       </c>
       <c r="AB9" s="100" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>土</v>
+        <v>月</v>
       </c>
       <c r="AC9" s="100" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>日</v>
+        <v>火</v>
       </c>
       <c r="AD9" s="100" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>月</v>
+        <v>水</v>
       </c>
       <c r="AE9" s="100" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>火</v>
+        <v>木</v>
       </c>
       <c r="AF9" s="100" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>水</v>
+        <v>金</v>
       </c>
       <c r="AG9" s="100" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>木</v>
+        <v>土</v>
       </c>
       <c r="AH9" s="100" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>金</v>
+        <v>日</v>
       </c>
       <c r="AI9" s="100" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>土</v>
+        <v>月</v>
       </c>
       <c r="AJ9" s="100" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>日</v>
+        <v>火</v>
       </c>
       <c r="AK9" s="100" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>月</v>
+        <v>水</v>
       </c>
       <c r="AL9" s="100" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>火</v>
+        <v>木</v>
       </c>
       <c r="AM9" s="100" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>水</v>
+        <v>金</v>
       </c>
       <c r="AN9" s="100" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>木</v>
+        <v>土</v>
       </c>
       <c r="AO9" s="100" t="str">
         <f t="shared" ref="AO9:BL9" ca="1" si="4">LEFT(TEXT(AO7,"aaa"),1)</f>
-        <v>金</v>
+        <v>日</v>
       </c>
       <c r="AP9" s="100" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>土</v>
+        <v>月</v>
       </c>
       <c r="AQ9" s="100" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>日</v>
+        <v>火</v>
       </c>
       <c r="AR9" s="100" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>月</v>
+        <v>水</v>
       </c>
       <c r="AS9" s="100" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>火</v>
+        <v>木</v>
       </c>
       <c r="AT9" s="100" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>水</v>
+        <v>金</v>
       </c>
       <c r="AU9" s="100" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>木</v>
+        <v>土</v>
       </c>
       <c r="AV9" s="100" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>金</v>
+        <v>日</v>
       </c>
       <c r="AW9" s="100" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>土</v>
+        <v>月</v>
       </c>
       <c r="AX9" s="100" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>日</v>
+        <v>火</v>
       </c>
       <c r="AY9" s="100" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>月</v>
+        <v>水</v>
       </c>
       <c r="AZ9" s="100" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>火</v>
+        <v>木</v>
       </c>
       <c r="BA9" s="100" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>水</v>
+        <v>金</v>
       </c>
       <c r="BB9" s="100" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>木</v>
+        <v>土</v>
       </c>
       <c r="BC9" s="100" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>金</v>
+        <v>日</v>
       </c>
       <c r="BD9" s="100" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>土</v>
+        <v>月</v>
       </c>
       <c r="BE9" s="100" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>日</v>
+        <v>火</v>
       </c>
       <c r="BF9" s="100" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>月</v>
+        <v>水</v>
       </c>
       <c r="BG9" s="100" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>火</v>
+        <v>木</v>
       </c>
       <c r="BH9" s="100" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>水</v>
+        <v>金</v>
       </c>
       <c r="BI9" s="100" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>木</v>
+        <v>土</v>
       </c>
       <c r="BJ9" s="100" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>金</v>
+        <v>日</v>
       </c>
       <c r="BK9" s="100" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>土</v>
+        <v>月</v>
       </c>
       <c r="BL9" s="100" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>日</v>
+        <v>火</v>
       </c>
       <c r="BM9" s="18"/>
     </row>
@@ -11775,7 +11786,7 @@
       </c>
       <c r="F12" s="104">
         <f ca="1">TODAY()</f>
-        <v>44858</v>
+        <v>44860</v>
       </c>
       <c r="G12" s="105">
         <v>3</v>
@@ -12019,7 +12030,7 @@
       <c r="E13" s="103"/>
       <c r="F13" s="104">
         <f ca="1">TODAY()+5</f>
-        <v>44863</v>
+        <v>44865</v>
       </c>
       <c r="G13" s="105">
         <v>1</v>
@@ -12265,7 +12276,7 @@
       </c>
       <c r="F14" s="104">
         <f ca="1">F12-3</f>
-        <v>44855</v>
+        <v>44857</v>
       </c>
       <c r="G14" s="105">
         <v>10</v>
@@ -12509,7 +12520,7 @@
       <c r="E15" s="103"/>
       <c r="F15" s="104">
         <f ca="1">F12+20</f>
-        <v>44878</v>
+        <v>44880</v>
       </c>
       <c r="G15" s="105">
         <v>1</v>
@@ -12755,7 +12766,7 @@
       </c>
       <c r="F16" s="104">
         <f ca="1">F12+6</f>
-        <v>44864</v>
+        <v>44866</v>
       </c>
       <c r="G16" s="105">
         <v>6</v>
@@ -13238,7 +13249,7 @@
       </c>
       <c r="F18" s="104">
         <f ca="1">F12+6</f>
-        <v>44864</v>
+        <v>44866</v>
       </c>
       <c r="G18" s="105">
         <v>13</v>
@@ -13484,7 +13495,7 @@
       </c>
       <c r="F19" s="104">
         <f ca="1">F18+2</f>
-        <v>44866</v>
+        <v>44868</v>
       </c>
       <c r="G19" s="105">
         <v>9</v>
@@ -13730,7 +13741,7 @@
       </c>
       <c r="F20" s="104">
         <f ca="1">F19+5</f>
-        <v>44871</v>
+        <v>44873</v>
       </c>
       <c r="G20" s="105">
         <v>11</v>
@@ -13974,7 +13985,7 @@
       <c r="E21" s="103"/>
       <c r="F21" s="104">
         <f ca="1">F20+2</f>
-        <v>44873</v>
+        <v>44875</v>
       </c>
       <c r="G21" s="105">
         <v>1</v>
@@ -14216,7 +14227,7 @@
       <c r="E22" s="103"/>
       <c r="F22" s="104">
         <f ca="1">F21+1</f>
-        <v>44874</v>
+        <v>44876</v>
       </c>
       <c r="G22" s="105">
         <v>24</v>
@@ -14697,7 +14708,7 @@
       <c r="E24" s="103"/>
       <c r="F24" s="104">
         <f ca="1">F12+15</f>
-        <v>44873</v>
+        <v>44875</v>
       </c>
       <c r="G24" s="105">
         <v>4</v>
@@ -14941,7 +14952,7 @@
       <c r="E25" s="103"/>
       <c r="F25" s="104">
         <f ca="1">F24+3</f>
-        <v>44876</v>
+        <v>44878</v>
       </c>
       <c r="G25" s="105">
         <v>14</v>
@@ -15185,7 +15196,7 @@
       <c r="E26" s="103"/>
       <c r="F26" s="104">
         <f ca="1">F25+15</f>
-        <v>44891</v>
+        <v>44893</v>
       </c>
       <c r="G26" s="105">
         <v>6</v>
@@ -15429,7 +15440,7 @@
       <c r="E27" s="103"/>
       <c r="F27" s="104">
         <f ca="1">F21+22</f>
-        <v>44895</v>
+        <v>44897</v>
       </c>
       <c r="G27" s="105">
         <v>3</v>
@@ -15673,7 +15684,7 @@
       <c r="E28" s="103"/>
       <c r="F28" s="104">
         <f ca="1">F16</f>
-        <v>44864</v>
+        <v>44866</v>
       </c>
       <c r="G28" s="105">
         <v>19</v>
@@ -16152,7 +16163,7 @@
       <c r="E30" s="103"/>
       <c r="F30" s="104">
         <f ca="1">F27+3</f>
-        <v>44898</v>
+        <v>44900</v>
       </c>
       <c r="G30" s="105">
         <v>15</v>
@@ -16394,7 +16405,7 @@
       <c r="E31" s="103"/>
       <c r="F31" s="104">
         <f ca="1">F30+14</f>
-        <v>44912</v>
+        <v>44914</v>
       </c>
       <c r="G31" s="105">
         <v>5</v>
@@ -16638,7 +16649,7 @@
       <c r="E32" s="103"/>
       <c r="F32" s="104">
         <f ca="1">F31+42</f>
-        <v>44954</v>
+        <v>44956</v>
       </c>
       <c r="G32" s="105">
         <v>1</v>
@@ -17876,27 +17887,27 @@
     <row r="1" spans="1:68" ht="25.2" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:68" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
-      <c r="B2" s="143" t="s">
+      <c r="B2" s="145" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="143"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="143"/>
-      <c r="G2" s="143"/>
-      <c r="H2" s="143"/>
-      <c r="I2" s="144"/>
-      <c r="J2" s="144"/>
-      <c r="K2" s="144"/>
-      <c r="L2" s="144"/>
-      <c r="M2" s="144"/>
-      <c r="N2" s="144"/>
-      <c r="O2" s="145"/>
-      <c r="P2" s="145"/>
-      <c r="Q2" s="145"/>
-      <c r="R2" s="145"/>
-      <c r="S2" s="145"/>
-      <c r="T2" s="145"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
+      <c r="K2" s="146"/>
+      <c r="L2" s="146"/>
+      <c r="M2" s="146"/>
+      <c r="N2" s="146"/>
+      <c r="O2" s="147"/>
+      <c r="P2" s="147"/>
+      <c r="Q2" s="147"/>
+      <c r="R2" s="147"/>
+      <c r="S2" s="147"/>
+      <c r="T2" s="147"/>
       <c r="U2" s="109"/>
       <c r="V2" s="109"/>
       <c r="W2" s="109"/>
@@ -17970,36 +17981,36 @@
         <v>30</v>
       </c>
       <c r="H4" s="49"/>
-      <c r="I4" s="136" t="s">
+      <c r="I4" s="138" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="136"/>
-      <c r="K4" s="136"/>
-      <c r="L4" s="136"/>
-      <c r="N4" s="137" t="s">
+      <c r="J4" s="138"/>
+      <c r="K4" s="138"/>
+      <c r="L4" s="138"/>
+      <c r="N4" s="139" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="137"/>
-      <c r="P4" s="137"/>
-      <c r="Q4" s="137"/>
-      <c r="S4" s="138" t="s">
+      <c r="O4" s="139"/>
+      <c r="P4" s="139"/>
+      <c r="Q4" s="139"/>
+      <c r="S4" s="140" t="s">
         <v>23</v>
       </c>
-      <c r="T4" s="138"/>
-      <c r="U4" s="138"/>
-      <c r="V4" s="138"/>
-      <c r="X4" s="131" t="s">
+      <c r="T4" s="140"/>
+      <c r="U4" s="140"/>
+      <c r="V4" s="140"/>
+      <c r="X4" s="133" t="s">
         <v>24</v>
       </c>
-      <c r="Y4" s="131"/>
-      <c r="Z4" s="131"/>
-      <c r="AA4" s="131"/>
-      <c r="AC4" s="132" t="s">
+      <c r="Y4" s="133"/>
+      <c r="Z4" s="133"/>
+      <c r="AA4" s="133"/>
+      <c r="AC4" s="134" t="s">
         <v>32</v>
       </c>
-      <c r="AD4" s="132"/>
-      <c r="AE4" s="132"/>
-      <c r="AF4" s="132"/>
+      <c r="AD4" s="134"/>
+      <c r="AE4" s="134"/>
+      <c r="AF4" s="134"/>
     </row>
     <row r="5" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8"/>
@@ -18020,7 +18031,7 @@
       </c>
       <c r="C6" s="54" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">IFERROR(IF(MIN(Milestones43524[開始日])=0,TODAY(),B11(Milestones43524[開始日])),TODAY())</f>
-        <v>44858</v>
+        <v>44860</v>
       </c>
       <c r="D6" s="55"/>
       <c r="E6" s="49"/>
@@ -18039,7 +18050,7 @@
       <c r="O6" s="56"/>
       <c r="P6" s="56" t="str">
         <f ca="1">IF(TEXT(P7,"m月")=I6,"",TEXT(P7,"m月"))</f>
-        <v/>
+        <v>11月</v>
       </c>
       <c r="Q6" s="56"/>
       <c r="R6" s="56"/>
@@ -18049,7 +18060,7 @@
       <c r="V6" s="56"/>
       <c r="W6" s="56" t="str">
         <f ca="1">IF(OR(TEXT(W7,"m月")=P6,TEXT(W7,"m月")=I6),"",TEXT(W7,"m月"))</f>
-        <v>11月</v>
+        <v/>
       </c>
       <c r="X6" s="56"/>
       <c r="Y6" s="56"/>
@@ -18123,227 +18134,227 @@
       <c r="H7" s="61"/>
       <c r="I7" s="114">
         <f ca="1">IFERROR(Project_Start+Scrolling_Increment,TODAY())</f>
-        <v>44858</v>
+        <v>44860</v>
       </c>
       <c r="J7" s="115">
         <f ca="1">I7+1</f>
-        <v>44859</v>
+        <v>44861</v>
       </c>
       <c r="K7" s="115">
         <f t="shared" ref="K7:AX7" ca="1" si="0">J7+1</f>
-        <v>44860</v>
+        <v>44862</v>
       </c>
       <c r="L7" s="115">
         <f t="shared" ca="1" si="0"/>
-        <v>44861</v>
+        <v>44863</v>
       </c>
       <c r="M7" s="115">
         <f t="shared" ca="1" si="0"/>
-        <v>44862</v>
+        <v>44864</v>
       </c>
       <c r="N7" s="115">
         <f t="shared" ca="1" si="0"/>
-        <v>44863</v>
+        <v>44865</v>
       </c>
       <c r="O7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>44864</v>
+        <v>44866</v>
       </c>
       <c r="P7" s="115">
         <f ca="1">O7+1</f>
-        <v>44865</v>
+        <v>44867</v>
       </c>
       <c r="Q7" s="115">
         <f ca="1">P7+1</f>
-        <v>44866</v>
+        <v>44868</v>
       </c>
       <c r="R7" s="115">
         <f t="shared" ca="1" si="0"/>
-        <v>44867</v>
+        <v>44869</v>
       </c>
       <c r="S7" s="115">
         <f t="shared" ca="1" si="0"/>
-        <v>44868</v>
+        <v>44870</v>
       </c>
       <c r="T7" s="115">
         <f t="shared" ca="1" si="0"/>
-        <v>44869</v>
+        <v>44871</v>
       </c>
       <c r="U7" s="115">
         <f t="shared" ca="1" si="0"/>
-        <v>44870</v>
+        <v>44872</v>
       </c>
       <c r="V7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>44871</v>
+        <v>44873</v>
       </c>
       <c r="W7" s="115">
         <f ca="1">V7+1</f>
-        <v>44872</v>
+        <v>44874</v>
       </c>
       <c r="X7" s="115">
         <f ca="1">W7+1</f>
-        <v>44873</v>
+        <v>44875</v>
       </c>
       <c r="Y7" s="115">
         <f t="shared" ca="1" si="0"/>
-        <v>44874</v>
+        <v>44876</v>
       </c>
       <c r="Z7" s="115">
         <f t="shared" ca="1" si="0"/>
-        <v>44875</v>
+        <v>44877</v>
       </c>
       <c r="AA7" s="115">
         <f t="shared" ca="1" si="0"/>
-        <v>44876</v>
+        <v>44878</v>
       </c>
       <c r="AB7" s="115">
         <f t="shared" ca="1" si="0"/>
-        <v>44877</v>
+        <v>44879</v>
       </c>
       <c r="AC7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>44878</v>
+        <v>44880</v>
       </c>
       <c r="AD7" s="115">
         <f ca="1">AC7+1</f>
-        <v>44879</v>
+        <v>44881</v>
       </c>
       <c r="AE7" s="115">
         <f ca="1">AD7+1</f>
-        <v>44880</v>
+        <v>44882</v>
       </c>
       <c r="AF7" s="115">
         <f t="shared" ca="1" si="0"/>
-        <v>44881</v>
+        <v>44883</v>
       </c>
       <c r="AG7" s="115">
         <f t="shared" ca="1" si="0"/>
-        <v>44882</v>
+        <v>44884</v>
       </c>
       <c r="AH7" s="115">
         <f t="shared" ca="1" si="0"/>
-        <v>44883</v>
+        <v>44885</v>
       </c>
       <c r="AI7" s="115">
         <f t="shared" ca="1" si="0"/>
-        <v>44884</v>
+        <v>44886</v>
       </c>
       <c r="AJ7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>44885</v>
+        <v>44887</v>
       </c>
       <c r="AK7" s="115">
         <f ca="1">AJ7+1</f>
-        <v>44886</v>
+        <v>44888</v>
       </c>
       <c r="AL7" s="115">
         <f ca="1">AK7+1</f>
-        <v>44887</v>
+        <v>44889</v>
       </c>
       <c r="AM7" s="115">
         <f t="shared" ca="1" si="0"/>
-        <v>44888</v>
+        <v>44890</v>
       </c>
       <c r="AN7" s="115">
         <f t="shared" ca="1" si="0"/>
-        <v>44889</v>
+        <v>44891</v>
       </c>
       <c r="AO7" s="115">
         <f t="shared" ca="1" si="0"/>
-        <v>44890</v>
+        <v>44892</v>
       </c>
       <c r="AP7" s="115">
         <f t="shared" ca="1" si="0"/>
-        <v>44891</v>
+        <v>44893</v>
       </c>
       <c r="AQ7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>44892</v>
+        <v>44894</v>
       </c>
       <c r="AR7" s="115">
         <f ca="1">AQ7+1</f>
-        <v>44893</v>
+        <v>44895</v>
       </c>
       <c r="AS7" s="115">
         <f ca="1">AR7+1</f>
-        <v>44894</v>
+        <v>44896</v>
       </c>
       <c r="AT7" s="115">
         <f t="shared" ca="1" si="0"/>
-        <v>44895</v>
+        <v>44897</v>
       </c>
       <c r="AU7" s="115">
         <f t="shared" ca="1" si="0"/>
-        <v>44896</v>
+        <v>44898</v>
       </c>
       <c r="AV7" s="115">
         <f t="shared" ca="1" si="0"/>
-        <v>44897</v>
+        <v>44899</v>
       </c>
       <c r="AW7" s="115">
         <f t="shared" ca="1" si="0"/>
-        <v>44898</v>
+        <v>44900</v>
       </c>
       <c r="AX7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>44899</v>
+        <v>44901</v>
       </c>
       <c r="AY7" s="115">
         <f ca="1">AX7+1</f>
-        <v>44900</v>
+        <v>44902</v>
       </c>
       <c r="AZ7" s="115">
         <f ca="1">AY7+1</f>
-        <v>44901</v>
+        <v>44903</v>
       </c>
       <c r="BA7" s="115">
         <f t="shared" ref="BA7:BE7" ca="1" si="1">AZ7+1</f>
-        <v>44902</v>
+        <v>44904</v>
       </c>
       <c r="BB7" s="115">
         <f t="shared" ca="1" si="1"/>
-        <v>44903</v>
+        <v>44905</v>
       </c>
       <c r="BC7" s="115">
         <f t="shared" ca="1" si="1"/>
-        <v>44904</v>
+        <v>44906</v>
       </c>
       <c r="BD7" s="115">
         <f t="shared" ca="1" si="1"/>
-        <v>44905</v>
+        <v>44907</v>
       </c>
       <c r="BE7" s="116">
         <f t="shared" ca="1" si="1"/>
-        <v>44906</v>
+        <v>44908</v>
       </c>
       <c r="BF7" s="115">
         <f ca="1">BE7+1</f>
-        <v>44907</v>
+        <v>44909</v>
       </c>
       <c r="BG7" s="115">
         <f ca="1">BF7+1</f>
-        <v>44908</v>
+        <v>44910</v>
       </c>
       <c r="BH7" s="115">
         <f t="shared" ref="BH7:BL7" ca="1" si="2">BG7+1</f>
-        <v>44909</v>
+        <v>44911</v>
       </c>
       <c r="BI7" s="115">
         <f t="shared" ca="1" si="2"/>
-        <v>44910</v>
+        <v>44912</v>
       </c>
       <c r="BJ7" s="115">
         <f t="shared" ca="1" si="2"/>
-        <v>44911</v>
+        <v>44913</v>
       </c>
       <c r="BK7" s="115">
         <f t="shared" ca="1" si="2"/>
-        <v>44912</v>
+        <v>44914</v>
       </c>
       <c r="BL7" s="116">
         <f t="shared" ca="1" si="2"/>
-        <v>44913</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="8" spans="1:68" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -18435,227 +18446,227 @@
       <c r="H9" s="64"/>
       <c r="I9" s="65" t="str">
         <f t="shared" ref="I9:AN9" ca="1" si="3">LEFT(TEXT(I7,"aaa"),1)</f>
-        <v>月</v>
+        <v>水</v>
       </c>
       <c r="J9" s="65" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>火</v>
+        <v>木</v>
       </c>
       <c r="K9" s="65" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>水</v>
+        <v>金</v>
       </c>
       <c r="L9" s="65" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>木</v>
+        <v>土</v>
       </c>
       <c r="M9" s="65" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>金</v>
+        <v>日</v>
       </c>
       <c r="N9" s="65" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>土</v>
+        <v>月</v>
       </c>
       <c r="O9" s="65" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>日</v>
+        <v>火</v>
       </c>
       <c r="P9" s="65" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>月</v>
+        <v>水</v>
       </c>
       <c r="Q9" s="65" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>火</v>
+        <v>木</v>
       </c>
       <c r="R9" s="65" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>水</v>
+        <v>金</v>
       </c>
       <c r="S9" s="65" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>木</v>
+        <v>土</v>
       </c>
       <c r="T9" s="65" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>金</v>
+        <v>日</v>
       </c>
       <c r="U9" s="65" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>土</v>
+        <v>月</v>
       </c>
       <c r="V9" s="65" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>日</v>
+        <v>火</v>
       </c>
       <c r="W9" s="65" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>月</v>
+        <v>水</v>
       </c>
       <c r="X9" s="65" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>火</v>
+        <v>木</v>
       </c>
       <c r="Y9" s="65" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>水</v>
+        <v>金</v>
       </c>
       <c r="Z9" s="65" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>木</v>
+        <v>土</v>
       </c>
       <c r="AA9" s="65" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>金</v>
+        <v>日</v>
       </c>
       <c r="AB9" s="65" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>土</v>
+        <v>月</v>
       </c>
       <c r="AC9" s="65" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>日</v>
+        <v>火</v>
       </c>
       <c r="AD9" s="65" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>月</v>
+        <v>水</v>
       </c>
       <c r="AE9" s="65" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>火</v>
+        <v>木</v>
       </c>
       <c r="AF9" s="65" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>水</v>
+        <v>金</v>
       </c>
       <c r="AG9" s="65" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>木</v>
+        <v>土</v>
       </c>
       <c r="AH9" s="65" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>金</v>
+        <v>日</v>
       </c>
       <c r="AI9" s="65" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>土</v>
+        <v>月</v>
       </c>
       <c r="AJ9" s="65" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>日</v>
+        <v>火</v>
       </c>
       <c r="AK9" s="65" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>月</v>
+        <v>水</v>
       </c>
       <c r="AL9" s="65" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>火</v>
+        <v>木</v>
       </c>
       <c r="AM9" s="65" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>水</v>
+        <v>金</v>
       </c>
       <c r="AN9" s="65" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>木</v>
+        <v>土</v>
       </c>
       <c r="AO9" s="65" t="str">
         <f t="shared" ref="AO9:BL9" ca="1" si="4">LEFT(TEXT(AO7,"aaa"),1)</f>
-        <v>金</v>
+        <v>日</v>
       </c>
       <c r="AP9" s="65" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>土</v>
+        <v>月</v>
       </c>
       <c r="AQ9" s="65" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>日</v>
+        <v>火</v>
       </c>
       <c r="AR9" s="65" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>月</v>
+        <v>水</v>
       </c>
       <c r="AS9" s="65" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>火</v>
+        <v>木</v>
       </c>
       <c r="AT9" s="65" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>水</v>
+        <v>金</v>
       </c>
       <c r="AU9" s="65" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>木</v>
+        <v>土</v>
       </c>
       <c r="AV9" s="65" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>金</v>
+        <v>日</v>
       </c>
       <c r="AW9" s="65" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>土</v>
+        <v>月</v>
       </c>
       <c r="AX9" s="65" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>日</v>
+        <v>火</v>
       </c>
       <c r="AY9" s="65" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>月</v>
+        <v>水</v>
       </c>
       <c r="AZ9" s="65" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>火</v>
+        <v>木</v>
       </c>
       <c r="BA9" s="65" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>水</v>
+        <v>金</v>
       </c>
       <c r="BB9" s="65" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>木</v>
+        <v>土</v>
       </c>
       <c r="BC9" s="65" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>金</v>
+        <v>日</v>
       </c>
       <c r="BD9" s="65" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>土</v>
+        <v>月</v>
       </c>
       <c r="BE9" s="65" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>日</v>
+        <v>火</v>
       </c>
       <c r="BF9" s="65" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>月</v>
+        <v>水</v>
       </c>
       <c r="BG9" s="65" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>火</v>
+        <v>木</v>
       </c>
       <c r="BH9" s="65" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>水</v>
+        <v>金</v>
       </c>
       <c r="BI9" s="65" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>木</v>
+        <v>土</v>
       </c>
       <c r="BJ9" s="65" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>金</v>
+        <v>日</v>
       </c>
       <c r="BK9" s="65" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>土</v>
+        <v>月</v>
       </c>
       <c r="BL9" s="65" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>日</v>
+        <v>火</v>
       </c>
     </row>
     <row r="10" spans="1:68" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -18975,7 +18986,7 @@
       </c>
       <c r="F12" s="69">
         <f ca="1">TODAY()</f>
-        <v>44858</v>
+        <v>44860</v>
       </c>
       <c r="G12" s="70">
         <v>3</v>
@@ -19218,7 +19229,7 @@
       <c r="E13" s="68"/>
       <c r="F13" s="69">
         <f ca="1">TODAY()+5</f>
-        <v>44863</v>
+        <v>44865</v>
       </c>
       <c r="G13" s="70">
         <v>1</v>
@@ -19463,7 +19474,7 @@
       </c>
       <c r="F14" s="69">
         <f ca="1">F12-3</f>
-        <v>44855</v>
+        <v>44857</v>
       </c>
       <c r="G14" s="70">
         <v>10</v>
@@ -19706,7 +19717,7 @@
       <c r="E15" s="68"/>
       <c r="F15" s="69">
         <f ca="1">F12+20</f>
-        <v>44878</v>
+        <v>44880</v>
       </c>
       <c r="G15" s="70">
         <v>1</v>
@@ -19951,7 +19962,7 @@
       </c>
       <c r="F16" s="69">
         <f ca="1">F12+6</f>
-        <v>44864</v>
+        <v>44866</v>
       </c>
       <c r="G16" s="70">
         <v>6</v>
@@ -20432,7 +20443,7 @@
       </c>
       <c r="F18" s="69">
         <f ca="1">F12+6</f>
-        <v>44864</v>
+        <v>44866</v>
       </c>
       <c r="G18" s="70">
         <v>13</v>
@@ -20677,7 +20688,7 @@
       </c>
       <c r="F19" s="69">
         <f ca="1">F18+2</f>
-        <v>44866</v>
+        <v>44868</v>
       </c>
       <c r="G19" s="70">
         <v>9</v>
@@ -20922,7 +20933,7 @@
       </c>
       <c r="F20" s="69">
         <f ca="1">F19+5</f>
-        <v>44871</v>
+        <v>44873</v>
       </c>
       <c r="G20" s="70">
         <v>11</v>
@@ -21165,7 +21176,7 @@
       <c r="E21" s="68"/>
       <c r="F21" s="69">
         <f ca="1">F20+2</f>
-        <v>44873</v>
+        <v>44875</v>
       </c>
       <c r="G21" s="70">
         <v>1</v>
@@ -21406,7 +21417,7 @@
       <c r="E22" s="68"/>
       <c r="F22" s="69">
         <f ca="1">F21+1</f>
-        <v>44874</v>
+        <v>44876</v>
       </c>
       <c r="G22" s="70">
         <v>24</v>
@@ -21885,7 +21896,7 @@
       <c r="E24" s="68"/>
       <c r="F24" s="69">
         <f ca="1">F12+15</f>
-        <v>44873</v>
+        <v>44875</v>
       </c>
       <c r="G24" s="70">
         <v>4</v>
@@ -22128,7 +22139,7 @@
       <c r="E25" s="68"/>
       <c r="F25" s="69">
         <f ca="1">F24+3</f>
-        <v>44876</v>
+        <v>44878</v>
       </c>
       <c r="G25" s="70">
         <v>14</v>
@@ -22371,7 +22382,7 @@
       <c r="E26" s="68"/>
       <c r="F26" s="69">
         <f ca="1">F25+15</f>
-        <v>44891</v>
+        <v>44893</v>
       </c>
       <c r="G26" s="70">
         <v>6</v>
@@ -22614,7 +22625,7 @@
       <c r="E27" s="68"/>
       <c r="F27" s="69">
         <f ca="1">F21+22</f>
-        <v>44895</v>
+        <v>44897</v>
       </c>
       <c r="G27" s="70">
         <v>3</v>
@@ -22857,7 +22868,7 @@
       <c r="E28" s="68"/>
       <c r="F28" s="69">
         <f ca="1">F16</f>
-        <v>44864</v>
+        <v>44866</v>
       </c>
       <c r="G28" s="70">
         <v>19</v>
@@ -23334,7 +23345,7 @@
       <c r="E30" s="68"/>
       <c r="F30" s="69">
         <f ca="1">F27+3</f>
-        <v>44898</v>
+        <v>44900</v>
       </c>
       <c r="G30" s="70">
         <v>15</v>
@@ -23575,7 +23586,7 @@
       <c r="E31" s="68"/>
       <c r="F31" s="69">
         <f ca="1">F30+14</f>
-        <v>44912</v>
+        <v>44914</v>
       </c>
       <c r="G31" s="70">
         <v>5</v>
@@ -23818,7 +23829,7 @@
       <c r="E32" s="68"/>
       <c r="F32" s="69">
         <f ca="1">F31+42</f>
-        <v>44954</v>
+        <v>44956</v>
       </c>
       <c r="G32" s="70">
         <v>1</v>
@@ -25027,6 +25038,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -25043,15 +25063,6 @@
     <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -25331,6 +25342,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39060724-9CA2-4290-8A0C-B53624A594E7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA4BA2A8-DB97-40F9-8DB6-154C09C7467C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -25338,14 +25357,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
     <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
     <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39060724-9CA2-4290-8A0C-B53624A594E7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
